--- a/Ticket.xlsx
+++ b/Ticket.xlsx
@@ -661,13 +661,13 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>200</v>
+        <v>50000000</v>
       </c>
       <c r="D2">
-        <v>8409</v>
+        <v>14272075</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>10378</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -678,13 +678,13 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>200</v>
+        <v>50000000</v>
       </c>
       <c r="D3">
-        <v>2613220</v>
+        <v>12173990</v>
       </c>
       <c r="E3">
-        <v>217</v>
+        <v>9950</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -695,13 +695,13 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>200</v>
+        <v>50000000</v>
       </c>
       <c r="D4">
-        <v>2562070</v>
+        <v>12129858</v>
       </c>
       <c r="E4">
-        <v>213</v>
+        <v>9941</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -709,16 +709,16 @@
         <v>8</v>
       </c>
       <c r="B5">
-        <v>1547808</v>
+        <v>0</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>50000000</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>9524014</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>9409</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -726,16 +726,16 @@
         <v>9</v>
       </c>
       <c r="B6">
-        <v>5271675</v>
+        <v>0</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>50000000</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>5132126</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>8513</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -743,16 +743,16 @@
         <v>10</v>
       </c>
       <c r="B7">
-        <v>3029391</v>
+        <v>0</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <v>50000000</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>6741086</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>8841</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -760,16 +760,16 @@
         <v>11</v>
       </c>
       <c r="B8">
-        <v>3029391</v>
+        <v>0</v>
       </c>
       <c r="C8">
-        <v>0</v>
+        <v>50000000</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>6741086</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>8841</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -777,16 +777,16 @@
         <v>12</v>
       </c>
       <c r="B9">
-        <v>3029391</v>
+        <v>0</v>
       </c>
       <c r="C9">
-        <v>0</v>
+        <v>50000000</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>6741086</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>8841</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -794,16 +794,16 @@
         <v>13</v>
       </c>
       <c r="B10">
-        <v>304470</v>
+        <v>0</v>
       </c>
       <c r="C10">
-        <v>0</v>
+        <v>50000000</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>9391572</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>9382</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -811,16 +811,16 @@
         <v>14</v>
       </c>
       <c r="B11">
-        <v>365133</v>
+        <v>0</v>
       </c>
       <c r="C11">
-        <v>0</v>
+        <v>50000000</v>
       </c>
       <c r="D11">
-        <v>0</v>
+        <v>12139429</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>9943</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -828,16 +828,16 @@
         <v>15</v>
       </c>
       <c r="B12">
-        <v>365133</v>
+        <v>0</v>
       </c>
       <c r="C12">
-        <v>0</v>
+        <v>50000000</v>
       </c>
       <c r="D12">
-        <v>0</v>
+        <v>12139429</v>
       </c>
       <c r="E12">
-        <v>0</v>
+        <v>9943</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -848,13 +848,13 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>200</v>
+        <v>50000000</v>
       </c>
       <c r="D13">
-        <v>2460866</v>
+        <v>12893605</v>
       </c>
       <c r="E13">
-        <v>205</v>
+        <v>10097</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -865,13 +865,13 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>200</v>
+        <v>50000000</v>
       </c>
       <c r="D14">
-        <v>2709251</v>
+        <v>15364410</v>
       </c>
       <c r="E14">
-        <v>225</v>
+        <v>10601</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -882,13 +882,13 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>200</v>
+        <v>50000000</v>
       </c>
       <c r="D15">
-        <v>2709251</v>
+        <v>15364410</v>
       </c>
       <c r="E15">
-        <v>225</v>
+        <v>10601</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -899,13 +899,13 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>200</v>
+        <v>50000000</v>
       </c>
       <c r="D16">
-        <v>2709251</v>
+        <v>15739528</v>
       </c>
       <c r="E16">
-        <v>225</v>
+        <v>10678</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -916,13 +916,13 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>200</v>
+        <v>50000000</v>
       </c>
       <c r="D17">
-        <v>1013461</v>
+        <v>10700088</v>
       </c>
       <c r="E17">
-        <v>84</v>
+        <v>9649</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -933,13 +933,13 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>200</v>
+        <v>50000000</v>
       </c>
       <c r="D18">
-        <v>1745851</v>
+        <v>10276452</v>
       </c>
       <c r="E18">
-        <v>145</v>
+        <v>9563</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -947,16 +947,16 @@
         <v>22</v>
       </c>
       <c r="B19">
-        <v>595139</v>
+        <v>0</v>
       </c>
       <c r="C19">
-        <v>0</v>
+        <v>50000000</v>
       </c>
       <c r="D19">
-        <v>0</v>
+        <v>9147957</v>
       </c>
       <c r="E19">
-        <v>0</v>
+        <v>9332</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -964,16 +964,16 @@
         <v>23</v>
       </c>
       <c r="B20">
-        <v>1312760</v>
+        <v>0</v>
       </c>
       <c r="C20">
-        <v>0</v>
+        <v>50000000</v>
       </c>
       <c r="D20">
-        <v>0</v>
+        <v>14187613</v>
       </c>
       <c r="E20">
-        <v>0</v>
+        <v>10361</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -984,13 +984,13 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>200</v>
+        <v>50000000</v>
       </c>
       <c r="D21">
-        <v>3460734</v>
+        <v>14258199</v>
       </c>
       <c r="E21">
-        <v>288</v>
+        <v>10375</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1001,13 +1001,13 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>200</v>
+        <v>50000000</v>
       </c>
       <c r="D22">
-        <v>3460734</v>
+        <v>14258199</v>
       </c>
       <c r="E22">
-        <v>288</v>
+        <v>10375</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1018,13 +1018,13 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>200</v>
+        <v>50000000</v>
       </c>
       <c r="D23">
-        <v>3460734</v>
+        <v>14258199</v>
       </c>
       <c r="E23">
-        <v>288</v>
+        <v>10375</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1035,13 +1035,13 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>200</v>
+        <v>50000000</v>
       </c>
       <c r="D24">
-        <v>105167</v>
+        <v>10348315</v>
       </c>
       <c r="E24">
-        <v>8</v>
+        <v>9577</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1049,16 +1049,16 @@
         <v>28</v>
       </c>
       <c r="B25">
-        <v>1472852</v>
+        <v>0</v>
       </c>
       <c r="C25">
-        <v>0</v>
+        <v>50000000</v>
       </c>
       <c r="D25">
-        <v>0</v>
+        <v>8714055</v>
       </c>
       <c r="E25">
-        <v>0</v>
+        <v>9244</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1066,16 +1066,16 @@
         <v>29</v>
       </c>
       <c r="B26">
-        <v>299390</v>
+        <v>0</v>
       </c>
       <c r="C26">
-        <v>0</v>
+        <v>50000000</v>
       </c>
       <c r="D26">
-        <v>0</v>
+        <v>9826582</v>
       </c>
       <c r="E26">
-        <v>0</v>
+        <v>9471</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1083,16 +1083,16 @@
         <v>30</v>
       </c>
       <c r="B27">
-        <v>2763108</v>
+        <v>0</v>
       </c>
       <c r="C27">
-        <v>0</v>
+        <v>50000000</v>
       </c>
       <c r="D27">
-        <v>0</v>
+        <v>13168248</v>
       </c>
       <c r="E27">
-        <v>0</v>
+        <v>10153</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1103,13 +1103,13 @@
         <v>0</v>
       </c>
       <c r="C28">
-        <v>200</v>
+        <v>50000000</v>
       </c>
       <c r="D28">
-        <v>589108</v>
+        <v>13333574</v>
       </c>
       <c r="E28">
-        <v>49</v>
+        <v>10187</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1120,13 +1120,13 @@
         <v>0</v>
       </c>
       <c r="C29">
-        <v>200</v>
+        <v>50000000</v>
       </c>
       <c r="D29">
-        <v>589108</v>
+        <v>13333574</v>
       </c>
       <c r="E29">
-        <v>49</v>
+        <v>10187</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1137,13 +1137,13 @@
         <v>0</v>
       </c>
       <c r="C30">
-        <v>200</v>
+        <v>50000000</v>
       </c>
       <c r="D30">
-        <v>589108</v>
+        <v>13333574</v>
       </c>
       <c r="E30">
-        <v>49</v>
+        <v>10187</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1154,13 +1154,13 @@
         <v>0</v>
       </c>
       <c r="C31">
-        <v>200</v>
+        <v>50000000</v>
       </c>
       <c r="D31">
-        <v>2000508</v>
+        <v>15824180</v>
       </c>
       <c r="E31">
-        <v>166</v>
+        <v>10695</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1171,13 +1171,13 @@
         <v>0</v>
       </c>
       <c r="C32">
-        <v>200</v>
+        <v>50000000</v>
       </c>
       <c r="D32">
-        <v>1741108</v>
+        <v>14593208</v>
       </c>
       <c r="E32">
-        <v>145</v>
+        <v>10444</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1188,13 +1188,13 @@
         <v>0</v>
       </c>
       <c r="C33">
-        <v>200</v>
+        <v>50000000</v>
       </c>
       <c r="D33">
-        <v>1741108</v>
+        <v>14547795</v>
       </c>
       <c r="E33">
-        <v>145</v>
+        <v>10435</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1205,13 +1205,13 @@
         <v>0</v>
       </c>
       <c r="C34">
-        <v>200</v>
+        <v>50000000</v>
       </c>
       <c r="D34">
-        <v>1741108</v>
+        <v>15923597</v>
       </c>
       <c r="E34">
-        <v>145</v>
+        <v>10715</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1222,13 +1222,13 @@
         <v>0</v>
       </c>
       <c r="C35">
-        <v>200</v>
+        <v>50000000</v>
       </c>
       <c r="D35">
-        <v>1741108</v>
+        <v>12541421</v>
       </c>
       <c r="E35">
-        <v>145</v>
+        <v>10025</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1239,13 +1239,13 @@
         <v>0</v>
       </c>
       <c r="C36">
-        <v>200</v>
+        <v>50000000</v>
       </c>
       <c r="D36">
-        <v>1741108</v>
+        <v>12541421</v>
       </c>
       <c r="E36">
-        <v>145</v>
+        <v>10025</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1256,13 +1256,13 @@
         <v>0</v>
       </c>
       <c r="C37">
-        <v>200</v>
+        <v>50000000</v>
       </c>
       <c r="D37">
-        <v>1741108</v>
+        <v>12541421</v>
       </c>
       <c r="E37">
-        <v>145</v>
+        <v>10025</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1273,13 +1273,13 @@
         <v>0</v>
       </c>
       <c r="C38">
-        <v>200</v>
+        <v>50000000</v>
       </c>
       <c r="D38">
-        <v>1741108</v>
+        <v>12093228</v>
       </c>
       <c r="E38">
-        <v>145</v>
+        <v>9934</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1290,13 +1290,13 @@
         <v>0</v>
       </c>
       <c r="C39">
-        <v>200</v>
+        <v>50000000</v>
       </c>
       <c r="D39">
-        <v>1741108</v>
+        <v>12071612</v>
       </c>
       <c r="E39">
-        <v>145</v>
+        <v>9929</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1307,13 +1307,13 @@
         <v>0</v>
       </c>
       <c r="C40">
-        <v>200</v>
+        <v>50000000</v>
       </c>
       <c r="D40">
-        <v>1741108</v>
+        <v>13137825</v>
       </c>
       <c r="E40">
-        <v>145</v>
+        <v>10147</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1324,13 +1324,13 @@
         <v>0</v>
       </c>
       <c r="C41">
-        <v>200</v>
+        <v>50000000</v>
       </c>
       <c r="D41">
-        <v>1741108</v>
+        <v>14591164</v>
       </c>
       <c r="E41">
-        <v>145</v>
+        <v>10443</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1341,13 +1341,13 @@
         <v>0</v>
       </c>
       <c r="C42">
-        <v>200</v>
+        <v>50000000</v>
       </c>
       <c r="D42">
-        <v>1741108</v>
+        <v>16105068</v>
       </c>
       <c r="E42">
-        <v>145</v>
+        <v>10752</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1358,13 +1358,13 @@
         <v>0</v>
       </c>
       <c r="C43">
-        <v>200</v>
+        <v>50000000</v>
       </c>
       <c r="D43">
-        <v>1741108</v>
+        <v>16105068</v>
       </c>
       <c r="E43">
-        <v>145</v>
+        <v>10752</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1375,13 +1375,13 @@
         <v>0</v>
       </c>
       <c r="C44">
-        <v>200</v>
+        <v>50000000</v>
       </c>
       <c r="D44">
-        <v>1741108</v>
+        <v>16105068</v>
       </c>
       <c r="E44">
-        <v>145</v>
+        <v>10752</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1392,13 +1392,13 @@
         <v>0</v>
       </c>
       <c r="C45">
-        <v>200</v>
+        <v>50000000</v>
       </c>
       <c r="D45">
-        <v>1741108</v>
+        <v>25990393</v>
       </c>
       <c r="E45">
-        <v>145</v>
+        <v>12770</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1409,13 +1409,13 @@
         <v>0</v>
       </c>
       <c r="C46">
-        <v>200</v>
+        <v>50000000</v>
       </c>
       <c r="D46">
-        <v>1741108</v>
+        <v>25193304</v>
       </c>
       <c r="E46">
-        <v>145</v>
+        <v>12607</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1426,13 +1426,13 @@
         <v>0</v>
       </c>
       <c r="C47">
-        <v>200</v>
+        <v>50000000</v>
       </c>
       <c r="D47">
-        <v>1741108</v>
+        <v>26528939</v>
       </c>
       <c r="E47">
-        <v>145</v>
+        <v>12880</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1443,13 +1443,13 @@
         <v>0</v>
       </c>
       <c r="C48">
-        <v>200</v>
+        <v>50000000</v>
       </c>
       <c r="D48">
-        <v>1741108</v>
+        <v>18050684</v>
       </c>
       <c r="E48">
-        <v>145</v>
+        <v>11150</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1460,13 +1460,13 @@
         <v>0</v>
       </c>
       <c r="C49">
-        <v>200</v>
+        <v>50000000</v>
       </c>
       <c r="D49">
-        <v>1741108</v>
+        <v>20948630</v>
       </c>
       <c r="E49">
-        <v>145</v>
+        <v>11741</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -1477,13 +1477,13 @@
         <v>0</v>
       </c>
       <c r="C50">
-        <v>200</v>
+        <v>50000000</v>
       </c>
       <c r="D50">
-        <v>1741108</v>
+        <v>20948630</v>
       </c>
       <c r="E50">
-        <v>145</v>
+        <v>11741</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -1494,13 +1494,13 @@
         <v>0</v>
       </c>
       <c r="C51">
-        <v>200</v>
+        <v>50000000</v>
       </c>
       <c r="D51">
-        <v>1741108</v>
+        <v>20948630</v>
       </c>
       <c r="E51">
-        <v>145</v>
+        <v>11741</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -1511,13 +1511,13 @@
         <v>0</v>
       </c>
       <c r="C52">
-        <v>200</v>
+        <v>50000000</v>
       </c>
       <c r="D52">
-        <v>1741108</v>
+        <v>17045453</v>
       </c>
       <c r="E52">
-        <v>145</v>
+        <v>10944</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -1528,13 +1528,13 @@
         <v>0</v>
       </c>
       <c r="C53">
-        <v>200</v>
+        <v>50000000</v>
       </c>
       <c r="D53">
-        <v>1741108</v>
+        <v>17648802</v>
       </c>
       <c r="E53">
-        <v>145</v>
+        <v>11068</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -1545,13 +1545,13 @@
         <v>0</v>
       </c>
       <c r="C54">
-        <v>200</v>
+        <v>50000000</v>
       </c>
       <c r="D54">
-        <v>1741108</v>
+        <v>13082413</v>
       </c>
       <c r="E54">
-        <v>145</v>
+        <v>10135</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -1562,13 +1562,13 @@
         <v>0</v>
       </c>
       <c r="C55">
-        <v>200</v>
+        <v>50000000</v>
       </c>
       <c r="D55">
-        <v>1741108</v>
+        <v>12633914</v>
       </c>
       <c r="E55">
-        <v>145</v>
+        <v>10044</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -1579,13 +1579,13 @@
         <v>0</v>
       </c>
       <c r="C56">
-        <v>200</v>
+        <v>50000000</v>
       </c>
       <c r="D56">
-        <v>1741108</v>
+        <v>11744855</v>
       </c>
       <c r="E56">
-        <v>145</v>
+        <v>9862</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -1596,13 +1596,13 @@
         <v>0</v>
       </c>
       <c r="C57">
-        <v>200</v>
+        <v>50000000</v>
       </c>
       <c r="D57">
-        <v>1741108</v>
+        <v>11744855</v>
       </c>
       <c r="E57">
-        <v>145</v>
+        <v>9862</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -1613,13 +1613,13 @@
         <v>0</v>
       </c>
       <c r="C58">
-        <v>200</v>
+        <v>50000000</v>
       </c>
       <c r="D58">
-        <v>1741108</v>
+        <v>11744855</v>
       </c>
       <c r="E58">
-        <v>145</v>
+        <v>9862</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -1630,13 +1630,13 @@
         <v>0</v>
       </c>
       <c r="C59">
-        <v>200</v>
+        <v>50000000</v>
       </c>
       <c r="D59">
-        <v>1741108</v>
+        <v>12789116</v>
       </c>
       <c r="E59">
-        <v>145</v>
+        <v>10076</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -1647,13 +1647,13 @@
         <v>0</v>
       </c>
       <c r="C60">
-        <v>200</v>
+        <v>50000000</v>
       </c>
       <c r="D60">
-        <v>1741108</v>
+        <v>17978008</v>
       </c>
       <c r="E60">
-        <v>145</v>
+        <v>11135</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -1664,13 +1664,13 @@
         <v>0</v>
       </c>
       <c r="C61">
-        <v>200</v>
+        <v>50000000</v>
       </c>
       <c r="D61">
-        <v>1741108</v>
+        <v>15682804</v>
       </c>
       <c r="E61">
-        <v>145</v>
+        <v>10666</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -1681,13 +1681,13 @@
         <v>0</v>
       </c>
       <c r="C62">
-        <v>200</v>
+        <v>50000000</v>
       </c>
       <c r="D62">
-        <v>1741108</v>
+        <v>9831447</v>
       </c>
       <c r="E62">
-        <v>145</v>
+        <v>9472</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -1698,13 +1698,13 @@
         <v>0</v>
       </c>
       <c r="C63">
-        <v>200</v>
+        <v>50000000</v>
       </c>
       <c r="D63">
-        <v>1741108</v>
+        <v>10378957</v>
       </c>
       <c r="E63">
-        <v>145</v>
+        <v>9584</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -1715,13 +1715,13 @@
         <v>0</v>
       </c>
       <c r="C64">
-        <v>200</v>
+        <v>50000000</v>
       </c>
       <c r="D64">
-        <v>1741108</v>
+        <v>10378957</v>
       </c>
       <c r="E64">
-        <v>145</v>
+        <v>9584</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -1732,13 +1732,13 @@
         <v>0</v>
       </c>
       <c r="C65">
-        <v>200</v>
+        <v>50000000</v>
       </c>
       <c r="D65">
-        <v>1741108</v>
+        <v>10378957</v>
       </c>
       <c r="E65">
-        <v>145</v>
+        <v>9584</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -1749,13 +1749,13 @@
         <v>0</v>
       </c>
       <c r="C66">
-        <v>200</v>
+        <v>50000000</v>
       </c>
       <c r="D66">
-        <v>1741108</v>
+        <v>12996118</v>
       </c>
       <c r="E66">
-        <v>145</v>
+        <v>10118</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -1766,13 +1766,13 @@
         <v>0</v>
       </c>
       <c r="C67">
-        <v>200</v>
+        <v>50000000</v>
       </c>
       <c r="D67">
-        <v>1741108</v>
+        <v>11023493</v>
       </c>
       <c r="E67">
-        <v>145</v>
+        <v>9715</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -1783,13 +1783,13 @@
         <v>0</v>
       </c>
       <c r="C68">
-        <v>200</v>
+        <v>50000000</v>
       </c>
       <c r="D68">
-        <v>1741108</v>
+        <v>11017933</v>
       </c>
       <c r="E68">
-        <v>145</v>
+        <v>9714</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -1800,13 +1800,13 @@
         <v>0</v>
       </c>
       <c r="C69">
-        <v>200</v>
+        <v>50000000</v>
       </c>
       <c r="D69">
-        <v>1741108</v>
+        <v>11197732</v>
       </c>
       <c r="E69">
-        <v>145</v>
+        <v>9751</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -1817,13 +1817,13 @@
         <v>0</v>
       </c>
       <c r="C70">
-        <v>200</v>
+        <v>50000000</v>
       </c>
       <c r="D70">
-        <v>1741108</v>
+        <v>12975205</v>
       </c>
       <c r="E70">
-        <v>145</v>
+        <v>10114</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -1834,13 +1834,13 @@
         <v>0</v>
       </c>
       <c r="C71">
-        <v>200</v>
+        <v>50000000</v>
       </c>
       <c r="D71">
-        <v>1741108</v>
+        <v>12975205</v>
       </c>
       <c r="E71">
-        <v>145</v>
+        <v>10114</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -1851,13 +1851,13 @@
         <v>0</v>
       </c>
       <c r="C72">
-        <v>200</v>
+        <v>50000000</v>
       </c>
       <c r="D72">
-        <v>1741108</v>
+        <v>12975205</v>
       </c>
       <c r="E72">
-        <v>145</v>
+        <v>10114</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -1868,13 +1868,13 @@
         <v>0</v>
       </c>
       <c r="C73">
-        <v>200</v>
+        <v>50000000</v>
       </c>
       <c r="D73">
-        <v>1741108</v>
+        <v>15617386</v>
       </c>
       <c r="E73">
-        <v>145</v>
+        <v>10653</v>
       </c>
     </row>
     <row r="74" spans="1:5">
@@ -1885,13 +1885,13 @@
         <v>0</v>
       </c>
       <c r="C74">
-        <v>200</v>
+        <v>50000000</v>
       </c>
       <c r="D74">
-        <v>1741108</v>
+        <v>11733820</v>
       </c>
       <c r="E74">
-        <v>145</v>
+        <v>9860</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -1902,13 +1902,13 @@
         <v>0</v>
       </c>
       <c r="C75">
-        <v>200</v>
+        <v>50000000</v>
       </c>
       <c r="D75">
-        <v>1741108</v>
+        <v>7661724</v>
       </c>
       <c r="E75">
-        <v>145</v>
+        <v>9029</v>
       </c>
     </row>
     <row r="76" spans="1:5">
@@ -1919,13 +1919,13 @@
         <v>0</v>
       </c>
       <c r="C76">
-        <v>200</v>
+        <v>50000000</v>
       </c>
       <c r="D76">
-        <v>1741108</v>
+        <v>11587164</v>
       </c>
       <c r="E76">
-        <v>145</v>
+        <v>9830</v>
       </c>
     </row>
     <row r="77" spans="1:5">
@@ -1936,13 +1936,13 @@
         <v>0</v>
       </c>
       <c r="C77">
-        <v>200</v>
+        <v>50000000</v>
       </c>
       <c r="D77">
-        <v>1741108</v>
+        <v>13380689</v>
       </c>
       <c r="E77">
-        <v>145</v>
+        <v>10196</v>
       </c>
     </row>
     <row r="78" spans="1:5">
@@ -1953,13 +1953,13 @@
         <v>0</v>
       </c>
       <c r="C78">
-        <v>200</v>
+        <v>50000000</v>
       </c>
       <c r="D78">
-        <v>1741108</v>
+        <v>13380689</v>
       </c>
       <c r="E78">
-        <v>145</v>
+        <v>10196</v>
       </c>
     </row>
     <row r="79" spans="1:5">
@@ -1970,13 +1970,13 @@
         <v>0</v>
       </c>
       <c r="C79">
-        <v>200</v>
+        <v>50000000</v>
       </c>
       <c r="D79">
-        <v>1741108</v>
+        <v>13380689</v>
       </c>
       <c r="E79">
-        <v>145</v>
+        <v>10196</v>
       </c>
     </row>
     <row r="80" spans="1:5">
@@ -1987,13 +1987,13 @@
         <v>0</v>
       </c>
       <c r="C80">
-        <v>200</v>
+        <v>50000000</v>
       </c>
       <c r="D80">
-        <v>1741108</v>
+        <v>15859633</v>
       </c>
       <c r="E80">
-        <v>145</v>
+        <v>10702</v>
       </c>
     </row>
     <row r="81" spans="1:5">
@@ -2004,13 +2004,13 @@
         <v>0</v>
       </c>
       <c r="C81">
-        <v>200</v>
+        <v>50000000</v>
       </c>
       <c r="D81">
-        <v>1741108</v>
+        <v>14225081</v>
       </c>
       <c r="E81">
-        <v>145</v>
+        <v>10369</v>
       </c>
     </row>
     <row r="82" spans="1:5">
@@ -2021,13 +2021,13 @@
         <v>0</v>
       </c>
       <c r="C82">
-        <v>200</v>
+        <v>50000000</v>
       </c>
       <c r="D82">
-        <v>1741108</v>
+        <v>12699163</v>
       </c>
       <c r="E82">
-        <v>145</v>
+        <v>10057</v>
       </c>
     </row>
     <row r="83" spans="1:5">
@@ -2038,13 +2038,13 @@
         <v>0</v>
       </c>
       <c r="C83">
-        <v>200</v>
+        <v>50000000</v>
       </c>
       <c r="D83">
-        <v>1741108</v>
+        <v>11153932</v>
       </c>
       <c r="E83">
-        <v>145</v>
+        <v>9742</v>
       </c>
     </row>
     <row r="84" spans="1:5">
@@ -2055,13 +2055,13 @@
         <v>0</v>
       </c>
       <c r="C84">
-        <v>200</v>
+        <v>50000000</v>
       </c>
       <c r="D84">
-        <v>1741108</v>
+        <v>15237318</v>
       </c>
       <c r="E84">
-        <v>145</v>
+        <v>10575</v>
       </c>
     </row>
     <row r="85" spans="1:5">
@@ -2072,13 +2072,13 @@
         <v>0</v>
       </c>
       <c r="C85">
-        <v>200</v>
+        <v>50000000</v>
       </c>
       <c r="D85">
-        <v>1741108</v>
+        <v>15237318</v>
       </c>
       <c r="E85">
-        <v>145</v>
+        <v>10575</v>
       </c>
     </row>
     <row r="86" spans="1:5">
@@ -2089,13 +2089,13 @@
         <v>0</v>
       </c>
       <c r="C86">
-        <v>200</v>
+        <v>50000000</v>
       </c>
       <c r="D86">
-        <v>1741108</v>
+        <v>15237318</v>
       </c>
       <c r="E86">
-        <v>145</v>
+        <v>10575</v>
       </c>
     </row>
     <row r="87" spans="1:5">
@@ -2106,13 +2106,13 @@
         <v>0</v>
       </c>
       <c r="C87">
-        <v>200</v>
+        <v>50000000</v>
       </c>
       <c r="D87">
-        <v>1741108</v>
+        <v>17227295</v>
       </c>
       <c r="E87">
-        <v>145</v>
+        <v>10982</v>
       </c>
     </row>
     <row r="88" spans="1:5">
@@ -2123,13 +2123,13 @@
         <v>0</v>
       </c>
       <c r="C88">
-        <v>200</v>
+        <v>50000000</v>
       </c>
       <c r="D88">
-        <v>1741108</v>
+        <v>19524412</v>
       </c>
       <c r="E88">
-        <v>145</v>
+        <v>11450</v>
       </c>
     </row>
     <row r="89" spans="1:5">
@@ -2140,13 +2140,13 @@
         <v>0</v>
       </c>
       <c r="C89">
-        <v>200</v>
+        <v>50000000</v>
       </c>
       <c r="D89">
-        <v>1741108</v>
+        <v>21263314</v>
       </c>
       <c r="E89">
-        <v>145</v>
+        <v>11805</v>
       </c>
     </row>
     <row r="90" spans="1:5">
@@ -2157,13 +2157,13 @@
         <v>0</v>
       </c>
       <c r="C90">
-        <v>200</v>
+        <v>50000000</v>
       </c>
       <c r="D90">
-        <v>1741108</v>
+        <v>13455590</v>
       </c>
       <c r="E90">
-        <v>145</v>
+        <v>10212</v>
       </c>
     </row>
     <row r="91" spans="1:5">
@@ -2174,13 +2174,13 @@
         <v>0</v>
       </c>
       <c r="C91">
-        <v>200</v>
+        <v>50000000</v>
       </c>
       <c r="D91">
-        <v>1741108</v>
+        <v>14246490</v>
       </c>
       <c r="E91">
-        <v>145</v>
+        <v>10373</v>
       </c>
     </row>
   </sheetData>
